--- a/WIP/files/Q05.xlsx
+++ b/WIP/files/Q05.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD428BF2-B4BE-48A0-8969-83D35D5B0CB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,238 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+  <si>
+    <t>COMMON Name</t>
+  </si>
+  <si>
+    <t>BOTANICAL Name</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>AVAILABILITY</t>
+  </si>
+  <si>
+    <t>Bloodroot</t>
+  </si>
+  <si>
+    <t>Sanguinaria canadensis</t>
+  </si>
+  <si>
+    <t>Mostly Shady</t>
+  </si>
+  <si>
+    <t>Columbine</t>
+  </si>
+  <si>
+    <t>Aquilegia canadensis</t>
+  </si>
+  <si>
+    <t>Marsh Marigold</t>
+  </si>
+  <si>
+    <t>Caltha palustris</t>
+  </si>
+  <si>
+    <t>Mostly Sunny</t>
+  </si>
+  <si>
+    <t>Cowslip</t>
+  </si>
+  <si>
+    <t>Dutchman's-Breeches</t>
+  </si>
+  <si>
+    <t>Dicentra cucullaria</t>
+  </si>
+  <si>
+    <t>Ginger, Wild</t>
+  </si>
+  <si>
+    <t>Asarum canadense</t>
+  </si>
+  <si>
+    <t>Hepatica</t>
+  </si>
+  <si>
+    <t>Hepatica americana</t>
+  </si>
+  <si>
+    <t>Liverleaf</t>
+  </si>
+  <si>
+    <t>Jack-In-The-Pulpit</t>
+  </si>
+  <si>
+    <t>Arisaema triphyllum</t>
+  </si>
+  <si>
+    <t>Mayapple</t>
+  </si>
+  <si>
+    <t>Podophyllum peltatum</t>
+  </si>
+  <si>
+    <t>Phlox, Woodland</t>
+  </si>
+  <si>
+    <t>Phlox divaricata</t>
+  </si>
+  <si>
+    <t>Sun or Shade</t>
+  </si>
+  <si>
+    <t>Phlox, Blue</t>
+  </si>
+  <si>
+    <t>Spring-Beauty</t>
+  </si>
+  <si>
+    <t>Claytonia Virginica</t>
+  </si>
+  <si>
+    <t>Trillium</t>
+  </si>
+  <si>
+    <t>Trillium grandiflorum</t>
+  </si>
+  <si>
+    <t>Wake Robin</t>
+  </si>
+  <si>
+    <t>Violet, Dog-Tooth</t>
+  </si>
+  <si>
+    <t>Erythronium americanum</t>
+  </si>
+  <si>
+    <t>Shade</t>
+  </si>
+  <si>
+    <t>Trout Lily</t>
+  </si>
+  <si>
+    <t>Adder's-Tongue</t>
+  </si>
+  <si>
+    <t>Anemone</t>
+  </si>
+  <si>
+    <t>Anemone blanda</t>
+  </si>
+  <si>
+    <t>Grecian Windflower</t>
+  </si>
+  <si>
+    <t>Bee Balm</t>
+  </si>
+  <si>
+    <t>Monarda didyma</t>
+  </si>
+  <si>
+    <t>Bergamot</t>
+  </si>
+  <si>
+    <t>Black-Eyed Susan</t>
+  </si>
+  <si>
+    <t>Rudbeckia hirta</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>Buttercup</t>
+  </si>
+  <si>
+    <t>Ranunculus</t>
+  </si>
+  <si>
+    <t>Crowfoot</t>
+  </si>
+  <si>
+    <t>Butterfly Weed</t>
+  </si>
+  <si>
+    <t>Asclepias tuberosa</t>
+  </si>
+  <si>
+    <t>Cinquefoil</t>
+  </si>
+  <si>
+    <t>Potentilla</t>
+  </si>
+  <si>
+    <t>Primrose</t>
+  </si>
+  <si>
+    <t>Oenothera</t>
+  </si>
+  <si>
+    <t>Gentian</t>
+  </si>
+  <si>
+    <t>Gentiana</t>
+  </si>
+  <si>
+    <t>Blue Gentian</t>
+  </si>
+  <si>
+    <t>Jacob's Ladder</t>
+  </si>
+  <si>
+    <t>Polemonium caeruleum</t>
+  </si>
+  <si>
+    <t>Greek Valerian</t>
+  </si>
+  <si>
+    <t>California Poppy</t>
+  </si>
+  <si>
+    <t>Eschscholzia californica</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Shooting Star</t>
+  </si>
+  <si>
+    <t>Dodecatheon</t>
+  </si>
+  <si>
+    <t>Snakeroot</t>
+  </si>
+  <si>
+    <t>Cimicifuga</t>
+  </si>
+  <si>
+    <t>Cardinal Flower</t>
+  </si>
+  <si>
+    <t>Lobelia cardinalis</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +280,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +563,754 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="F2">
+        <v>31599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="F3">
+        <v>30699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="F4">
+        <v>51799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="F5">
+        <v>30699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="F6">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F7">
+        <v>41899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="F8">
+        <v>12699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="F9">
+        <v>10299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="F10">
+        <v>20199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="F11">
+        <v>60599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F12">
+        <v>12299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.59</v>
+      </c>
+      <c r="F13">
+        <v>21699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.59</v>
+      </c>
+      <c r="F14">
+        <v>20199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F15">
+        <v>42999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F16">
+        <v>22199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="F17">
+        <v>20199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.94</v>
+      </c>
+      <c r="F18">
+        <v>32499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="F19">
+        <v>41399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.86</v>
+      </c>
+      <c r="F20">
+        <v>122698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="F21">
+        <v>71099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="F22">
+        <v>50399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="F23">
+        <v>42799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F24">
+        <v>61899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="F25">
+        <v>61099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="F26">
+        <v>40399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.78</v>
+      </c>
+      <c r="F27">
+        <v>63099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="F28">
+        <v>52599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6.56</v>
+      </c>
+      <c r="F29">
+        <v>13099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7.81</v>
+      </c>
+      <c r="F30">
+        <v>51899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="F31">
+        <v>50299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="F32">
+        <v>22199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F33">
+        <v>71499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7.89</v>
+      </c>
+      <c r="F34">
+        <v>32799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="F35">
+        <v>51399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="F36">
+        <v>71199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="F37">
+        <v>22299</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>